--- a/resources/documentation/ASTRAIOSGanttPlanPSR3.xlsx
+++ b/resources/documentation/ASTRAIOSGanttPlanPSR3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianwa\Documents\GitHub\ASTRAIOS\resources\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04085855-F26C-4A35-8018-30BC6297B12F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E76653-3361-4813-AE42-3A1AD844A600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
   <si>
     <t>Break</t>
   </si>
@@ -250,10 +250,10 @@
     <t>Possibly plan a quick build?</t>
   </si>
   <si>
-    <t>Make rough prototype of ASTRAIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Present to Community </t>
+    <t>Present to Community ?</t>
+  </si>
+  <si>
+    <t>Make rough prototype of ASTRAIOS?</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +1971,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2045,14 +2045,14 @@
       </c>
       <c r="O3" s="97">
         <f>SUM(O5:O33)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="102" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="103">
         <f>SUM(R5:R32)</f>
-        <v>105.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2674,7 +2674,7 @@
       </c>
       <c r="R24" s="110">
         <f>SUM(F24+F25+I24+I25+L24+L25+O24+O25)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2695,12 +2695,8 @@
       <c r="K25" s="88"/>
       <c r="L25" s="89"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="O25" s="98">
-        <v>1</v>
-      </c>
+      <c r="N25" s="101"/>
+      <c r="O25" s="98"/>
       <c r="P25" s="18"/>
       <c r="Q25" s="121"/>
       <c r="R25" s="111"/>
@@ -2733,7 +2729,7 @@
       </c>
       <c r="R26" s="110">
         <f>SUM(F26+F27+I26+I27+L26+L27+O26+O27)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2754,12 +2750,8 @@
       <c r="K27" s="126"/>
       <c r="L27" s="127"/>
       <c r="M27" s="18"/>
-      <c r="N27" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="O27" s="98">
-        <v>1</v>
-      </c>
+      <c r="N27" s="101"/>
+      <c r="O27" s="98"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="121"/>
       <c r="R27" s="111"/>
@@ -2856,7 +2848,7 @@
       </c>
       <c r="M30" s="44"/>
       <c r="N30" s="154" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O30" s="99">
         <v>8</v>
@@ -2879,7 +2871,7 @@
       <c r="F31" s="67"/>
       <c r="G31" s="43"/>
       <c r="H31" s="78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I31" s="79">
         <v>1</v>

--- a/resources/documentation/ASTRAIOSGanttPlanPSR3.xlsx
+++ b/resources/documentation/ASTRAIOSGanttPlanPSR3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ianwa\Documents\GitHub\ASTRAIOS\resources\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E76653-3361-4813-AE42-3A1AD844A600}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B7C4F-F97E-4190-AC2A-0B6B7854489B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="73">
   <si>
     <t>Break</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Video Log 1</t>
   </si>
   <si>
-    <t>Video Log 2</t>
-  </si>
-  <si>
     <t>Prototyping/CAD</t>
   </si>
   <si>
@@ -217,12 +214,6 @@
     <t>Design ASTRAIOS V2</t>
   </si>
   <si>
-    <t>Flight Controller Mount CAD</t>
-  </si>
-  <si>
-    <t>Build ASTRAIOS V2</t>
-  </si>
-  <si>
     <t>Do Research on Flight Board and VBA</t>
   </si>
   <si>
@@ -254,6 +245,12 @@
   </si>
   <si>
     <t>Make rough prototype of ASTRAIOS?</t>
+  </si>
+  <si>
+    <t>Email Mentor on next steps</t>
+  </si>
+  <si>
+    <t>Design/Make Mission Patch</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +1968,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1984,8 +1981,8 @@
     <col min="8" max="8" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="2.5546875" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.33203125" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="2.6640625" customWidth="1"/>
     <col min="14" max="14" width="31.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5" customWidth="1"/>
@@ -2031,28 +2028,28 @@
       </c>
       <c r="I3" s="194">
         <f>SUM(I5:I33)</f>
-        <v>41</v>
+        <v>37.5</v>
       </c>
       <c r="K3" s="92" t="s">
         <v>17</v>
       </c>
       <c r="L3" s="93">
         <f>SUM(L5:L33)</f>
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="96" t="s">
         <v>17</v>
       </c>
       <c r="O3" s="97">
         <f>SUM(O5:O33)</f>
-        <v>26</v>
+        <v>23.5</v>
       </c>
       <c r="Q3" s="102" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="103">
         <f>SUM(R5:R32)</f>
-        <v>103.5</v>
+        <v>98.5</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2181,7 +2178,7 @@
       <c r="C10" s="27"/>
       <c r="D10" s="16"/>
       <c r="E10" s="62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="66">
         <v>1</v>
@@ -2210,14 +2207,14 @@
       <c r="C11" s="27"/>
       <c r="D11" s="16"/>
       <c r="E11" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F11" s="67">
         <v>2</v>
       </c>
       <c r="G11" s="26"/>
       <c r="H11" s="78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I11" s="79">
         <v>3</v>
@@ -2244,14 +2241,14 @@
       <c r="C12" s="27"/>
       <c r="D12" s="16"/>
       <c r="E12" s="62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="66">
         <v>0.5</v>
       </c>
       <c r="G12" s="26"/>
       <c r="H12" s="80" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="77">
         <v>3</v>
@@ -2282,7 +2279,7 @@
       <c r="F13" s="67"/>
       <c r="G13" s="26"/>
       <c r="H13" s="78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="79">
         <v>3</v>
@@ -2292,7 +2289,7 @@
       <c r="L13" s="89"/>
       <c r="M13" s="16"/>
       <c r="N13" s="101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O13" s="98">
         <v>1</v>
@@ -2312,7 +2309,7 @@
       <c r="F14" s="66"/>
       <c r="G14" s="191"/>
       <c r="H14" s="78" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="79">
         <v>1</v>
@@ -2342,28 +2339,28 @@
       </c>
       <c r="D15" s="186"/>
       <c r="E15" s="69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="67">
         <v>1</v>
       </c>
       <c r="G15" s="186"/>
       <c r="H15" s="78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="79">
         <v>2</v>
       </c>
       <c r="J15" s="186"/>
       <c r="K15" s="86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L15" s="87">
         <v>1</v>
       </c>
       <c r="M15" s="186"/>
       <c r="N15" s="101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O15" s="98">
         <v>2</v>
@@ -2380,14 +2377,14 @@
       <c r="C16" s="31"/>
       <c r="D16" s="34"/>
       <c r="E16" s="62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F16" s="66">
         <v>1</v>
       </c>
       <c r="G16" s="34"/>
       <c r="H16" s="80" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I16" s="77">
         <v>1.5</v>
@@ -2416,7 +2413,7 @@
       <c r="F17" s="67"/>
       <c r="G17" s="34"/>
       <c r="H17" s="78" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I17" s="79">
         <v>5</v>
@@ -2426,7 +2423,7 @@
       <c r="L17" s="89"/>
       <c r="M17" s="30"/>
       <c r="N17" s="101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O17" s="98">
         <v>2</v>
@@ -2446,7 +2443,7 @@
       <c r="F18" s="66"/>
       <c r="G18" s="34"/>
       <c r="H18" s="193" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I18" s="77">
         <v>5</v>
@@ -2479,7 +2476,7 @@
       <c r="F19" s="67"/>
       <c r="G19" s="52"/>
       <c r="H19" s="78" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I19" s="79">
         <v>1</v>
@@ -2489,7 +2486,7 @@
       <c r="L19" s="89"/>
       <c r="M19" s="7"/>
       <c r="N19" s="101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O19" s="98">
         <v>2</v>
@@ -2506,35 +2503,31 @@
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="62" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F20" s="66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="78" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="79">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="86"/>
       <c r="L20" s="87"/>
       <c r="M20" s="17"/>
-      <c r="N20" s="128" t="s">
-        <v>44</v>
-      </c>
-      <c r="O20" s="129">
-        <v>1</v>
-      </c>
+      <c r="N20" s="128"/>
+      <c r="O20" s="129"/>
       <c r="P20" s="17"/>
       <c r="Q20" s="118" t="s">
         <v>23</v>
       </c>
       <c r="R20" s="108">
         <f>SUM(F20+F21+I20+I21+L20+L21+O20+O21)</f>
-        <v>11.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2545,25 +2538,17 @@
       <c r="E21" s="69"/>
       <c r="F21" s="67"/>
       <c r="G21" s="17"/>
-      <c r="H21" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="I21" s="79">
-        <v>3</v>
-      </c>
+      <c r="H21" s="78"/>
+      <c r="I21" s="79"/>
       <c r="J21" s="17"/>
-      <c r="K21" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="L21" s="89">
-        <v>2</v>
-      </c>
+      <c r="K21" s="88"/>
+      <c r="L21" s="89"/>
       <c r="M21" s="17"/>
       <c r="N21" s="101" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O21" s="98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P21" s="17"/>
       <c r="Q21" s="119"/>
@@ -2580,30 +2565,24 @@
       <c r="F22" s="66"/>
       <c r="G22" s="17"/>
       <c r="H22" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I22" s="77">
         <v>2</v>
       </c>
       <c r="J22" s="17"/>
-      <c r="K22" s="86" t="s">
-        <v>62</v>
-      </c>
-      <c r="L22" s="87">
-        <v>2</v>
-      </c>
+      <c r="K22" s="86"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="17"/>
       <c r="N22" s="100"/>
-      <c r="O22" s="99">
-        <v>1</v>
-      </c>
+      <c r="O22" s="99"/>
       <c r="P22" s="17"/>
       <c r="Q22" s="118" t="s">
         <v>24</v>
       </c>
       <c r="R22" s="108">
         <f>SUM(F22+F23+I22+I23+L22+L23+O22+O23)</f>
-        <v>9.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2619,25 +2598,17 @@
       <c r="F23" s="68"/>
       <c r="G23" s="11"/>
       <c r="H23" s="78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I23" s="79">
         <v>2</v>
       </c>
       <c r="J23" s="11"/>
-      <c r="K23" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="L23" s="89">
-        <v>1</v>
-      </c>
+      <c r="K23" s="88"/>
+      <c r="L23" s="89"/>
       <c r="M23" s="11"/>
-      <c r="N23" s="101" t="s">
-        <v>53</v>
-      </c>
-      <c r="O23" s="98">
-        <v>1.5</v>
-      </c>
+      <c r="N23" s="101"/>
+      <c r="O23" s="98"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="119"/>
       <c r="R23" s="109"/>
@@ -2650,21 +2621,25 @@
       <c r="C24" s="14"/>
       <c r="D24" s="13"/>
       <c r="E24" s="177" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F24" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24" s="13"/>
       <c r="H24" s="80" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I24" s="77">
         <v>1</v>
       </c>
       <c r="J24" s="13"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="87"/>
+      <c r="K24" s="86" t="s">
+        <v>72</v>
+      </c>
+      <c r="L24" s="87">
+        <v>6</v>
+      </c>
       <c r="M24" s="13"/>
       <c r="N24" s="100"/>
       <c r="O24" s="99"/>
@@ -2674,7 +2649,7 @@
       </c>
       <c r="R24" s="110">
         <f>SUM(F24+F25+I24+I25+L24+L25+O24+O25)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2686,7 +2661,7 @@
       <c r="F25" s="178"/>
       <c r="G25" s="18"/>
       <c r="H25" s="196" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I25" s="165">
         <v>2</v>
@@ -2695,8 +2670,12 @@
       <c r="K25" s="88"/>
       <c r="L25" s="89"/>
       <c r="M25" s="18"/>
-      <c r="N25" s="101"/>
-      <c r="O25" s="98"/>
+      <c r="N25" s="101" t="s">
+        <v>71</v>
+      </c>
+      <c r="O25" s="98">
+        <v>2</v>
+      </c>
       <c r="P25" s="18"/>
       <c r="Q25" s="121"/>
       <c r="R25" s="111"/>
@@ -2709,7 +2688,7 @@
       <c r="C26" s="23"/>
       <c r="D26" s="18"/>
       <c r="E26" s="177" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F26" s="66">
         <v>2</v>
@@ -2764,21 +2743,21 @@
       <c r="C28" s="40"/>
       <c r="D28" s="63"/>
       <c r="E28" s="62" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F28" s="66">
         <v>2</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="76" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="I28" s="77">
         <v>3</v>
       </c>
       <c r="J28" s="40"/>
       <c r="K28" s="86" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L28" s="87">
         <v>4</v>
@@ -2801,7 +2780,7 @@
       <c r="C29" s="43"/>
       <c r="D29" s="64"/>
       <c r="E29" s="69" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F29" s="67">
         <v>1</v>
@@ -2811,7 +2790,7 @@
       <c r="I29" s="79"/>
       <c r="J29" s="43"/>
       <c r="K29" s="88" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L29" s="89">
         <v>4</v>
@@ -2831,7 +2810,7 @@
       <c r="C30" s="43"/>
       <c r="D30" s="64"/>
       <c r="E30" s="62" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F30" s="66">
         <v>1</v>
@@ -2841,14 +2820,14 @@
       <c r="I30" s="77"/>
       <c r="J30" s="43"/>
       <c r="K30" s="86" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L30" s="87">
         <v>8</v>
       </c>
       <c r="M30" s="44"/>
       <c r="N30" s="154" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="O30" s="99">
         <v>8</v>
@@ -2871,7 +2850,7 @@
       <c r="F31" s="67"/>
       <c r="G31" s="43"/>
       <c r="H31" s="78" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I31" s="79">
         <v>1</v>
@@ -2881,7 +2860,7 @@
       <c r="L31" s="89"/>
       <c r="M31" s="44"/>
       <c r="N31" s="155" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O31" s="98">
         <v>5</v>
